--- a/pitcher_matchups_2025-09-13.xlsx
+++ b/pitcher_matchups_2025-09-13.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>StartTime</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>@ATH</t>
-  </si>
-  <si>
-    <t>last updated 09/13/2025 08:08 AM ET</t>
   </si>
   <si>
     <t>TB
@@ -269,7 +266,7 @@
 @ ATH</t>
   </si>
   <si>
-    <t>Batter Matchups 09/13/2025</t>
+    <t>Data for September 13, 2025</t>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -312,17 +309,14 @@
     <t>Bryce Johnson (CF)</t>
   </si>
   <si>
-    <t>Best Hitter/Pitcher Matchups for 09/13/2025</t>
-  </si>
-  <si>
-    <t>as of 09/13/2025 08:08 AM ET</t>
+    <t>Best Hitter/Pitcher Matchups for September 13, 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,29 +326,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -396,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,7 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -413,17 +385,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -811,9 +774,9 @@
     <col min="4" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" customHeight="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -842,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
@@ -868,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
@@ -894,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
@@ -920,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
@@ -946,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
@@ -972,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
@@ -998,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
@@ -1024,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
@@ -1050,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
@@ -1076,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
@@ -1102,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
@@ -1128,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1">
@@ -1154,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1">
@@ -1180,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1">
@@ -1206,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1">
@@ -1227,18 +1190,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A33:E33"/>
+  <mergeCells count="31">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1301,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1312,21 +1265,21 @@
   <cols>
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -1342,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1364,11 +1317,11 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>86</v>
+      <c r="E3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1384,11 +1337,11 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>87</v>
+      <c r="E4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1404,28 +1357,16 @@
       <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:G5">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
